--- a/RT600换扇.xlsx
+++ b/RT600换扇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F67C982-B420-B840-9A67-BCFE8ACBE49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D251DCD6-EB19-B142-8034-03330FFA42A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="600" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -25,13 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>F3 S120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>莫比乌斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD12V2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,11 +422,16 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>48.8</v>
       </c>
@@ -441,8 +450,17 @@
       <c r="F2">
         <v>2352</v>
       </c>
+      <c r="G2">
+        <v>44.1</v>
+      </c>
+      <c r="H2">
+        <v>55.9</v>
+      </c>
+      <c r="I2">
+        <v>2502</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>39.9</v>
       </c>
@@ -461,12 +479,22 @@
       <c r="F3">
         <v>2103</v>
       </c>
+      <c r="G3">
+        <v>39.9</v>
+      </c>
+      <c r="H3">
+        <v>56.9</v>
+      </c>
+      <c r="I3">
+        <v>2101</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RT600换扇.xlsx
+++ b/RT600换扇.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D251DCD6-EB19-B142-8034-03330FFA42A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7FB4D8-096E-7442-B049-47036286931D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="600" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="18040" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>F3 S120</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +46,14 @@
   </si>
   <si>
     <t>FD12V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,15 +421,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,16 +445,30 @@
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:21">
       <c r="A2">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <f>76.4-20.7</f>
+        <v>55.7</v>
       </c>
       <c r="C2">
         <v>2684</v>
@@ -445,7 +477,8 @@
         <v>42.7</v>
       </c>
       <c r="E2">
-        <v>56.6</v>
+        <f>77-20.7</f>
+        <v>56.3</v>
       </c>
       <c r="F2">
         <v>2352</v>
@@ -454,18 +487,39 @@
         <v>44.1</v>
       </c>
       <c r="H2">
-        <v>55.9</v>
+        <f>76.6-20.7</f>
+        <v>55.899999999999991</v>
       </c>
       <c r="I2">
         <v>2502</v>
       </c>
+      <c r="J2">
+        <v>47.5</v>
+      </c>
+      <c r="K2">
+        <v>55.2</v>
+      </c>
+      <c r="L2">
+        <v>2595</v>
+      </c>
+      <c r="M2">
+        <v>47.4</v>
+      </c>
+      <c r="N2">
+        <f>75.9-20.5</f>
+        <v>55.400000000000006</v>
+      </c>
+      <c r="O2">
+        <v>2600</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:21">
       <c r="A3">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="B3">
-        <v>58.5</v>
+        <f>78.3-20.7</f>
+        <v>57.599999999999994</v>
       </c>
       <c r="C3">
         <v>1918</v>
@@ -474,27 +528,51 @@
         <v>39.9</v>
       </c>
       <c r="E3">
-        <v>57.4</v>
+        <f>77.8-20.6</f>
+        <v>57.199999999999996</v>
       </c>
       <c r="F3">
-        <v>2103</v>
+        <v>2078</v>
       </c>
       <c r="G3">
         <v>39.9</v>
       </c>
       <c r="H3">
-        <v>56.9</v>
+        <f>77.7-20.7</f>
+        <v>57</v>
       </c>
       <c r="I3">
         <v>2101</v>
       </c>
+      <c r="J3">
+        <v>40.1</v>
+      </c>
+      <c r="K3">
+        <v>57</v>
+      </c>
+      <c r="L3">
+        <v>1944</v>
+      </c>
+      <c r="M3">
+        <v>40</v>
+      </c>
+      <c r="N3">
+        <f>77.9-20.6</f>
+        <v>57.300000000000004</v>
+      </c>
+      <c r="O3">
+        <v>1920</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="S1:U1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RT600换扇.xlsx
+++ b/RT600换扇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7FB4D8-096E-7442-B049-47036286931D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C517AA36-1CAB-CD4B-8289-5BE87708B603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="18040" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>F3 S120</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,26 @@
   </si>
   <si>
     <t>P28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿华12025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK12V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT120K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACH120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,15 +441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,14 +475,33 @@
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="S1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
+      <c r="V1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>48.7</v>
       </c>
@@ -512,8 +551,58 @@
       <c r="O2">
         <v>2600</v>
       </c>
+      <c r="P2">
+        <v>43.4</v>
+      </c>
+      <c r="Q2">
+        <f>76.7-20.7</f>
+        <v>56</v>
+      </c>
+      <c r="R2">
+        <v>2272</v>
+      </c>
+      <c r="S2">
+        <v>45.4</v>
+      </c>
+      <c r="T2">
+        <f>76.2-20.7</f>
+        <v>55.5</v>
+      </c>
+      <c r="U2">
+        <v>2711</v>
+      </c>
+      <c r="V2">
+        <v>45.5</v>
+      </c>
+      <c r="W2">
+        <f>76.7-20.7</f>
+        <v>56</v>
+      </c>
+      <c r="X2">
+        <v>1983</v>
+      </c>
+      <c r="Y2">
+        <v>50.7</v>
+      </c>
+      <c r="Z2">
+        <f>76.3-20.7</f>
+        <v>55.599999999999994</v>
+      </c>
+      <c r="AA2">
+        <v>3053</v>
+      </c>
+      <c r="AB2">
+        <v>53.9</v>
+      </c>
+      <c r="AC2">
+        <f>74.8-20.7</f>
+        <v>54.099999999999994</v>
+      </c>
+      <c r="AD2">
+        <v>3057</v>
+      </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>40.1</v>
       </c>
@@ -563,9 +652,84 @@
       <c r="O3">
         <v>1920</v>
       </c>
+      <c r="P3">
+        <v>39.9</v>
+      </c>
+      <c r="Q3">
+        <f>77.6-20.7</f>
+        <v>56.899999999999991</v>
+      </c>
+      <c r="R3">
+        <v>1967</v>
+      </c>
+      <c r="S3">
+        <v>40.1</v>
+      </c>
+      <c r="T3">
+        <f>77.6-20.7</f>
+        <v>56.899999999999991</v>
+      </c>
+      <c r="U3">
+        <v>2167</v>
+      </c>
+      <c r="V3">
+        <v>40</v>
+      </c>
+      <c r="W3">
+        <f>78.1-20.6</f>
+        <v>57.499999999999993</v>
+      </c>
+      <c r="X3">
+        <v>1609</v>
+      </c>
+      <c r="Y3">
+        <v>45</v>
+      </c>
+      <c r="Z3">
+        <f>77.6-20.7</f>
+        <v>56.899999999999991</v>
+      </c>
+      <c r="AA3">
+        <v>2404</v>
+      </c>
+      <c r="AB3">
+        <v>45</v>
+      </c>
+      <c r="AC3">
+        <f>76.9-20.6</f>
+        <v>56.300000000000004</v>
+      </c>
+      <c r="AD3">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="Y4">
+        <v>40</v>
+      </c>
+      <c r="Z4">
+        <f>79-20.7</f>
+        <v>58.3</v>
+      </c>
+      <c r="AA4">
+        <v>1938</v>
+      </c>
+      <c r="AB4">
+        <v>40</v>
+      </c>
+      <c r="AC4">
+        <f>78.1-20.6</f>
+        <v>57.499999999999993</v>
+      </c>
+      <c r="AD4">
+        <v>1786</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>

--- a/RT600换扇.xlsx
+++ b/RT600换扇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C517AA36-1CAB-CD4B-8289-5BE87708B603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC1CB95-C686-5F4A-AF9E-E4BFFB531112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="18040" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>F3 S120</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,14 @@
   </si>
   <si>
     <t>MACH120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F9 R120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,15 +449,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AJ4" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,8 +508,18 @@
       </c>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
+      <c r="AE1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:36">
       <c r="A2">
         <v>48.7</v>
       </c>
@@ -601,8 +619,28 @@
       <c r="AD2">
         <v>3057</v>
       </c>
+      <c r="AE2">
+        <v>56.3</v>
+      </c>
+      <c r="AF2">
+        <f>74.4-20.7</f>
+        <v>53.7</v>
+      </c>
+      <c r="AG2">
+        <v>3000</v>
+      </c>
+      <c r="AH2">
+        <v>53.5</v>
+      </c>
+      <c r="AI2">
+        <f>74.9-20.6</f>
+        <v>54.300000000000004</v>
+      </c>
+      <c r="AJ2">
+        <v>2985</v>
+      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:36">
       <c r="A3">
         <v>40.1</v>
       </c>
@@ -702,8 +740,28 @@
       <c r="AD3">
         <v>2181</v>
       </c>
+      <c r="AE3">
+        <v>45</v>
+      </c>
+      <c r="AF3">
+        <f>77-20.6</f>
+        <v>56.4</v>
+      </c>
+      <c r="AG3">
+        <v>1956</v>
+      </c>
+      <c r="AH3">
+        <v>45</v>
+      </c>
+      <c r="AI3">
+        <f>76.8-20.6</f>
+        <v>56.199999999999996</v>
+      </c>
+      <c r="AJ3">
+        <v>2181</v>
+      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:36">
       <c r="Y4">
         <v>40</v>
       </c>
@@ -724,12 +782,34 @@
       <c r="AD4">
         <v>1786</v>
       </c>
+      <c r="AE4">
+        <v>40.1</v>
+      </c>
+      <c r="AF4">
+        <f>78.4-20.6</f>
+        <v>57.800000000000004</v>
+      </c>
+      <c r="AG4">
+        <v>1576</v>
+      </c>
+      <c r="AH4">
+        <v>40</v>
+      </c>
+      <c r="AI4">
+        <f>78.1-20.6</f>
+        <v>57.499999999999993</v>
+      </c>
+      <c r="AJ4">
+        <v>1770</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>

--- a/RT600换扇.xlsx
+++ b/RT600换扇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC1CB95-C686-5F4A-AF9E-E4BFFB531112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1216DD26-993E-6C41-8EF4-FD58D921CDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="18040" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>F3 S120</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,14 @@
   </si>
   <si>
     <t>T30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9RA12025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LP12E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,15 +457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AS4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AJ4" sqref="AJ4"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1:AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,8 +526,21 @@
       </c>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
+      <c r="AK1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:45">
       <c r="A2">
         <v>48.7</v>
       </c>
@@ -639,8 +660,28 @@
       <c r="AJ2">
         <v>2985</v>
       </c>
+      <c r="AK2">
+        <v>56.7</v>
+      </c>
+      <c r="AL2">
+        <f>74.1-20.5</f>
+        <v>53.599999999999994</v>
+      </c>
+      <c r="AM2">
+        <v>4095</v>
+      </c>
+      <c r="AN2">
+        <v>53.7</v>
+      </c>
+      <c r="AO2">
+        <f>74.7-20.6</f>
+        <v>54.1</v>
+      </c>
+      <c r="AP2">
+        <v>3015</v>
+      </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:45">
       <c r="A3">
         <v>40.1</v>
       </c>
@@ -760,8 +801,28 @@
       <c r="AJ3">
         <v>2181</v>
       </c>
+      <c r="AK3">
+        <v>44.9</v>
+      </c>
+      <c r="AL3">
+        <f>76.8-20.5</f>
+        <v>56.3</v>
+      </c>
+      <c r="AM3">
+        <v>2520</v>
+      </c>
+      <c r="AN3">
+        <v>45</v>
+      </c>
+      <c r="AO3">
+        <f>76.7-20.5</f>
+        <v>56.2</v>
+      </c>
+      <c r="AP3">
+        <v>2167</v>
+      </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:45">
       <c r="Y4">
         <v>40</v>
       </c>
@@ -802,9 +863,32 @@
       <c r="AJ4">
         <v>1770</v>
       </c>
+      <c r="AK4">
+        <v>40</v>
+      </c>
+      <c r="AL4">
+        <f>77.9-20.5</f>
+        <v>57.400000000000006</v>
+      </c>
+      <c r="AM4">
+        <v>2092</v>
+      </c>
+      <c r="AN4">
+        <v>40</v>
+      </c>
+      <c r="AO4">
+        <f>78.1-20.5</f>
+        <v>57.599999999999994</v>
+      </c>
+      <c r="AP4">
+        <v>1750</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="AB1:AD1"/>

--- a/RT600换扇.xlsx
+++ b/RT600换扇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1216DD26-993E-6C41-8EF4-FD58D921CDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EF24ED-1CB4-4E47-9DB4-1BC48E33C164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="18040" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>F3 S120</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,10 @@
   </si>
   <si>
     <t>LP12E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
   <dimension ref="A1:AS4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AQ1" sqref="AQ1:AS1"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AR4" sqref="AR4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -536,7 +540,9 @@
       </c>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
+      <c r="AQ1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
     </row>
@@ -680,6 +686,16 @@
       <c r="AP2">
         <v>3015</v>
       </c>
+      <c r="AQ2">
+        <v>46.2</v>
+      </c>
+      <c r="AR2">
+        <f>76.4-20.6</f>
+        <v>55.800000000000004</v>
+      </c>
+      <c r="AS2">
+        <v>2558</v>
+      </c>
     </row>
     <row r="3" spans="1:45">
       <c r="A3">
@@ -820,6 +836,16 @@
       </c>
       <c r="AP3">
         <v>2167</v>
+      </c>
+      <c r="AQ3">
+        <v>40</v>
+      </c>
+      <c r="AR3">
+        <f>77.9-20.6</f>
+        <v>57.300000000000004</v>
+      </c>
+      <c r="AS3">
+        <v>1949</v>
       </c>
     </row>
     <row r="4" spans="1:45">

--- a/RT600换扇.xlsx
+++ b/RT600换扇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EF24ED-1CB4-4E47-9DB4-1BC48E33C164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8F999D-4C5B-1242-BED2-8E3B95BA50DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="18040" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>F3 S120</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,10 @@
   </si>
   <si>
     <t>A120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GT3000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,15 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="A1:AS4"/>
+  <dimension ref="A1:AV4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AR4" sqref="AR4"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AU4" sqref="AU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:48">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,8 +549,13 @@
       </c>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
+      <c r="AT1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:48">
       <c r="A2">
         <v>48.7</v>
       </c>
@@ -696,8 +705,18 @@
       <c r="AS2">
         <v>2558</v>
       </c>
+      <c r="AT2">
+        <v>50.8</v>
+      </c>
+      <c r="AU2">
+        <f>78.1-22</f>
+        <v>56.099999999999994</v>
+      </c>
+      <c r="AV2">
+        <v>2919</v>
+      </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:48">
       <c r="A3">
         <v>40.1</v>
       </c>
@@ -847,8 +866,18 @@
       <c r="AS3">
         <v>1949</v>
       </c>
+      <c r="AT3">
+        <v>40</v>
+      </c>
+      <c r="AU3">
+        <f>80.2-22.1</f>
+        <v>58.1</v>
+      </c>
+      <c r="AV3">
+        <v>1939</v>
+      </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:48">
       <c r="Y4">
         <v>40</v>
       </c>
@@ -911,10 +940,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AV1"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="AB1:AD1"/>
